--- a/lookup_records/excel/PFT Abdominal Crunches Scoring Tables.xlsx
+++ b/lookup_records/excel/PFT Abdominal Crunches Scoring Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaur\Google Drive\Coding\Python\2021-USMC-Calculator\lookup_records\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB916327-2798-4445-A4A9-5AA1FEF3E026}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A755C7E3-027B-43AE-816D-69F3534BEBAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Female Crunch" sheetId="2" r:id="rId1"/>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I73" sqref="I3:I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -726,82 +726,154 @@
       <c r="A3" s="12">
         <v>110</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="4">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4">
+        <v>100</v>
+      </c>
       <c r="D3" s="4">
         <v>100</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="E3" s="4">
+        <v>100</v>
+      </c>
+      <c r="F3" s="4">
+        <v>100</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100</v>
+      </c>
+      <c r="H3" s="4">
+        <v>100</v>
+      </c>
+      <c r="I3" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>109</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
       <c r="D4" s="4">
         <v>99</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="E4" s="4">
+        <v>100</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="4">
+        <v>100</v>
+      </c>
+      <c r="I4" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>108</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="4">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
       <c r="D5" s="4">
         <v>98</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="E5" s="4">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4">
+        <v>100</v>
+      </c>
+      <c r="I5" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>107</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="4">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
       <c r="D6" s="4">
         <v>96</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="E6" s="4">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4">
+        <v>100</v>
+      </c>
+      <c r="H6" s="4">
+        <v>100</v>
+      </c>
+      <c r="I6" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>106</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="4">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
       <c r="D7" s="4">
         <v>95</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="E7" s="4">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4">
+        <v>100</v>
+      </c>
+      <c r="H7" s="4">
+        <v>100</v>
+      </c>
+      <c r="I7" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>105</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4">
+        <v>100</v>
+      </c>
       <c r="C8" s="4">
         <v>100</v>
       </c>
@@ -814,15 +886,23 @@
       <c r="F8" s="4">
         <v>100</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="4">
+        <v>100</v>
+      </c>
+      <c r="H8" s="4">
+        <v>100</v>
+      </c>
+      <c r="I8" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>104</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4">
+        <v>100</v>
+      </c>
       <c r="C9" s="4">
         <v>99</v>
       </c>
@@ -835,15 +915,23 @@
       <c r="F9" s="4">
         <v>99</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="4">
+        <v>100</v>
+      </c>
+      <c r="H9" s="4">
+        <v>100</v>
+      </c>
+      <c r="I9" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>103</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="4">
+        <v>100</v>
+      </c>
       <c r="C10" s="4">
         <v>98</v>
       </c>
@@ -856,15 +944,23 @@
       <c r="F10" s="4">
         <v>97</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="4">
+        <v>100</v>
+      </c>
+      <c r="H10" s="4">
+        <v>100</v>
+      </c>
+      <c r="I10" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>102</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4">
+        <v>100</v>
+      </c>
       <c r="C11" s="4">
         <v>96</v>
       </c>
@@ -877,15 +973,23 @@
       <c r="F11" s="4">
         <v>96</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="4">
+        <v>100</v>
+      </c>
+      <c r="H11" s="4">
+        <v>100</v>
+      </c>
+      <c r="I11" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>101</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4">
+        <v>100</v>
+      </c>
       <c r="C12" s="4">
         <v>95</v>
       </c>
@@ -898,9 +1002,15 @@
       <c r="F12" s="4">
         <v>95</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="4">
+        <v>100</v>
+      </c>
+      <c r="H12" s="4">
+        <v>100</v>
+      </c>
+      <c r="I12" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
@@ -2101,9 +2211,15 @@
       <c r="C54" s="4">
         <v>45</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
       <c r="G54" s="4">
         <v>45</v>
       </c>
@@ -2124,9 +2240,15 @@
       <c r="C55" s="4">
         <v>44</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
       <c r="G55" s="4">
         <v>44</v>
       </c>
@@ -2147,9 +2269,15 @@
       <c r="C56" s="4">
         <v>42</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
       <c r="G56" s="4">
         <v>43</v>
       </c>
@@ -2170,9 +2298,15 @@
       <c r="C57" s="4">
         <v>41</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
       <c r="G57" s="4">
         <v>41</v>
       </c>
@@ -2193,9 +2327,15 @@
       <c r="C58" s="4">
         <v>40</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
       <c r="G58" s="4">
         <v>40</v>
       </c>
@@ -2213,11 +2353,21 @@
       <c r="B59" s="4">
         <v>45</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
       <c r="H59" s="6">
         <v>45</v>
       </c>
@@ -2232,11 +2382,21 @@
       <c r="B60" s="4">
         <v>44</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
       <c r="H60" s="6">
         <v>44</v>
       </c>
@@ -2251,11 +2411,21 @@
       <c r="B61" s="4">
         <v>42</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
       <c r="H61" s="6">
         <v>42</v>
       </c>
@@ -2270,11 +2440,21 @@
       <c r="B62" s="4">
         <v>41</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
       <c r="H62" s="6">
         <v>41</v>
       </c>
@@ -2289,11 +2469,21 @@
       <c r="B63" s="4">
         <v>40</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
       <c r="H63" s="6">
         <v>40</v>
       </c>
@@ -2305,13 +2495,27 @@
       <c r="A64" s="12">
         <v>49</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
       <c r="I64" s="15">
         <v>49</v>
       </c>
@@ -2320,13 +2524,27 @@
       <c r="A65" s="12">
         <v>48</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
       <c r="I65" s="15">
         <v>48</v>
       </c>
@@ -2335,13 +2553,27 @@
       <c r="A66" s="12">
         <v>47</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
       <c r="I66" s="15">
         <v>47</v>
       </c>
@@ -2350,13 +2582,27 @@
       <c r="A67" s="12">
         <v>46</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0</v>
+      </c>
       <c r="I67" s="15">
         <v>46</v>
       </c>
@@ -2365,13 +2611,27 @@
       <c r="A68" s="12">
         <v>45</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
       <c r="I68" s="15">
         <v>45</v>
       </c>
@@ -2380,13 +2640,27 @@
       <c r="A69" s="12">
         <v>44</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0</v>
+      </c>
       <c r="I69" s="15">
         <v>44</v>
       </c>
@@ -2395,13 +2669,27 @@
       <c r="A70" s="12">
         <v>43</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
       <c r="I70" s="15">
         <v>43</v>
       </c>
@@ -2410,13 +2698,27 @@
       <c r="A71" s="12">
         <v>42</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
       <c r="I71" s="15">
         <v>42</v>
       </c>
@@ -2425,13 +2727,27 @@
       <c r="A72" s="12">
         <v>41</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
       <c r="I72" s="15">
         <v>41</v>
       </c>
@@ -2440,13 +2756,27 @@
       <c r="A73" s="12">
         <v>40</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
       <c r="I73" s="15">
         <v>40</v>
       </c>
@@ -2463,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="I18" sqref="I18:I78"/>
     </sheetView>
   </sheetViews>
